--- a/evaluation/results/isolation_forest/augmented/noise_2/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9501779359430605</v>
+        <v>0.2597864768683274</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.06108597285067873</v>
       </c>
       <c r="D2">
-        <v>0.4642857142857143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.4814814814814815</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="F2">
-        <v>0.4710144927536232</v>
+        <v>0.2436823104693141</v>
       </c>
       <c r="G2">
-        <v>0.465564738292011</v>
+        <v>0.6147110332749562</v>
       </c>
       <c r="H2">
-        <v>0.7199705724986625</v>
+        <v>0.8214620117710005</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="K2">
-        <v>521</v>
+        <v>119</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9720149253731343</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="C2">
-        <v>0.9756554307116105</v>
+        <v>0.2228464419475655</v>
       </c>
       <c r="D2">
-        <v>0.9738317757009346</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.06108597285067873</v>
       </c>
       <c r="C3">
-        <v>0.4642857142857143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.4814814814814815</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9501779359430605</v>
+        <v>0.2597864768683274</v>
       </c>
       <c r="C4">
-        <v>0.9501779359430605</v>
+        <v>0.2597864768683274</v>
       </c>
       <c r="D4">
-        <v>0.9501779359430605</v>
+        <v>0.2597864768683274</v>
       </c>
       <c r="E4">
-        <v>0.9501779359430605</v>
+        <v>0.2597864768683274</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7360074626865671</v>
+        <v>0.5263763197586727</v>
       </c>
       <c r="C5">
-        <v>0.7199705724986625</v>
+        <v>0.5935660781166399</v>
       </c>
       <c r="D5">
-        <v>0.7276566285912081</v>
+        <v>0.2394039950549808</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9484981675253624</v>
+        <v>0.9453032157292154</v>
       </c>
       <c r="C6">
-        <v>0.9501779359430605</v>
+        <v>0.2597864768683274</v>
       </c>
       <c r="D6">
-        <v>0.9493018678038802</v>
+        <v>0.3515076450283871</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>521</v>
+        <v>119</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
